--- a/data/trans_bre/P08_1_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P08_1_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.50216848018294</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.071438961324306</v>
+        <v>8.071438961324301</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6379082744342439</v>
@@ -649,7 +649,7 @@
         <v>0.6392241607825284</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3251545277169559</v>
+        <v>0.3251545277169556</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.86489808367744</v>
+        <v>7.495113069222255</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.35678219820605</v>
+        <v>8.367815945403425</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.028274043167383</v>
+        <v>6.854671375847129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.350106047210932</v>
+        <v>2.514388584773306</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3693450250071402</v>
+        <v>0.343504384381205</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4508359509700737</v>
+        <v>0.461774551414928</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3884980172479306</v>
+        <v>0.3810324545482331</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.08152834986233105</v>
+        <v>0.08998240989783515</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.66956607824192</v>
+        <v>16.50170223335902</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.75853844357964</v>
+        <v>15.70772911200013</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.81777843374127</v>
+        <v>13.8970970148025</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.84789273011064</v>
+        <v>13.5098699860024</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.038213947058849</v>
+        <v>1.005003027020593</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.041411457620703</v>
+        <v>1.049154223814706</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9108320064372305</v>
+        <v>0.9408818544176987</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5877899936174981</v>
+        <v>0.6328689793862027</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.843726695058641</v>
+        <v>5.799391737344776</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.651188677350834</v>
+        <v>8.769738905642184</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.88645202050566</v>
+        <v>4.687342471694493</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.765577022426023</v>
+        <v>5.976962500220184</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4587145660505547</v>
+        <v>0.4504406710241362</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.516924210633584</v>
+        <v>0.5468583115294996</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3111599184658332</v>
+        <v>0.3144357943821883</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.306725864652559</v>
+        <v>0.3139012364654394</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.96324621747568</v>
+        <v>11.91581673457543</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.93819082722898</v>
+        <v>15.88677331649902</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.59397484158623</v>
+        <v>11.83657090580339</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.4605203127184</v>
+        <v>12.40780917117984</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.193510385850623</v>
+        <v>1.19001801818842</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.264596513254996</v>
+        <v>1.233124790927082</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9873229639919777</v>
+        <v>0.9937606333994173</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8734028970138796</v>
+        <v>0.8602158054320833</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.888409392653919</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.662699089117474</v>
+        <v>6.662699089117481</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.002514022522022</v>
@@ -849,7 +849,7 @@
         <v>0.8500672041902421</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6027459323101578</v>
+        <v>0.6027459323101585</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.688992033423053</v>
+        <v>5.356361032360605</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.064952348851356</v>
+        <v>2.854396092812633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.924334477391629</v>
+        <v>6.286276783504538</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.753743419746636</v>
+        <v>4.150847638307495</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.594124361091396</v>
+        <v>0.5626069207682758</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1793745367377327</v>
+        <v>0.1769118269917861</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4594930684514363</v>
+        <v>0.4694243575282313</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2909522883031292</v>
+        <v>0.3263265550048566</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.30686577724543</v>
+        <v>11.18573027108145</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.7820680562281</v>
+        <v>10.61224807506887</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.84436226968796</v>
+        <v>13.93812312541331</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.201450729137051</v>
+        <v>9.326957676546234</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.540537967546363</v>
+        <v>1.544284024853628</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8466315195409939</v>
+        <v>0.8482415455943351</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.366086815971127</v>
+        <v>1.384297071916615</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.953377385809288</v>
+        <v>0.9730068866178891</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.252491951366536</v>
+        <v>1.549918383901493</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.641553962646918</v>
+        <v>4.874103800568068</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.194725725066583</v>
+        <v>-1.643921103389757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.278723716843341</v>
+        <v>2.420230304684463</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1610010402014167</v>
+        <v>0.1360849797523932</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3150646479758778</v>
+        <v>0.3737937126072609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1497132850361977</v>
+        <v>-0.1214603528239939</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1735683427784649</v>
+        <v>0.1970768791155869</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.550729237204401</v>
+        <v>9.442908392934738</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.69377820281465</v>
+        <v>14.75242447801661</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.73596397947042</v>
+        <v>7.13913036062327</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.929656997341268</v>
+        <v>8.156341258387096</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.864897501279619</v>
+        <v>1.865541486942588</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.51037445352874</v>
+        <v>1.616467137540555</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6845334456821208</v>
+        <v>0.6933620319563163</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8020420748661258</v>
+        <v>0.8847303568500605</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.458992827771118</v>
+        <v>8.453418743024621</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.589626612814765</v>
+        <v>8.570040307951647</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.756026353535051</v>
+        <v>6.968771131832368</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.130466936758586</v>
+        <v>6.004552097122851</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7091819790293217</v>
+        <v>0.7013482338372428</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5485084134963606</v>
+        <v>0.5491608671752644</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4623780600254316</v>
+        <v>0.4698783308300843</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3941842226315239</v>
+        <v>0.3897428644015028</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.05231107059922</v>
+        <v>12.05042659419435</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.59189447486307</v>
+        <v>12.57749781285086</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.71892561516257</v>
+        <v>10.6881243974195</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.207612177979367</v>
+        <v>9.162594038709395</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.176554330919158</v>
+        <v>1.169834237169485</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9084231693443273</v>
+        <v>0.9221299329600259</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8232196832623443</v>
+        <v>0.819501301963376</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6836474138446975</v>
+        <v>0.6624704056430333</v>
       </c>
     </row>
     <row r="19">
